--- a/data/world_countries.xlsx
+++ b/data/world_countries.xlsx
@@ -1,33 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29019"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\SpreadsheetGuru\B. Blog Posts\01. Blog\A. Published\2023\03.15.2023_List of Countries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\ESTUDOS DATA SCIENCE\ie-employment-permit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70939007-20FB-4D1B-B63D-D7C85B61B81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845CCEEA-5AF3-4041-B9BC-915D5291D891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{20B413F9-C870-4C80-9652-07DD00D52B38}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{20B413F9-C870-4C80-9652-07DD00D52B38}"/>
   </bookViews>
   <sheets>
     <sheet name="World" sheetId="1" r:id="rId1"/>
-    <sheet name="Africa" sheetId="3" r:id="rId2"/>
-    <sheet name="Asia" sheetId="7" r:id="rId3"/>
-    <sheet name="Australia" sheetId="8" r:id="rId4"/>
-    <sheet name="Europe" sheetId="4" r:id="rId5"/>
-    <sheet name="N. America" sheetId="5" r:id="rId6"/>
-    <sheet name="S. America" sheetId="6" r:id="rId7"/>
+    <sheet name="Aux_Table" sheetId="9" r:id="rId2"/>
+    <sheet name="Africa" sheetId="3" r:id="rId3"/>
+    <sheet name="Asia" sheetId="7" r:id="rId4"/>
+    <sheet name="Australia" sheetId="8" r:id="rId5"/>
+    <sheet name="Europe" sheetId="4" r:id="rId6"/>
+    <sheet name="N. America" sheetId="5" r:id="rId7"/>
+    <sheet name="S. America" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Africa!$A$1:$D$55</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Asia!$A$1:$D$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Australia!$A$1:$D$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Europe!$A$1:$D$45</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'N. America'!$A$1:$D$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'S. America'!$A$1:$D$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Africa!$A$1:$D$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Asia!$A$1:$D$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Australia!$A$1:$D$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aux_Table!$A$1:$B$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Europe!$A$1:$D$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'N. America'!$A$1:$D$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'S. America'!$A$1:$D$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">World!$A$1:$D$196</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -42,8 +44,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="646">
   <si>
     <t>Country</t>
   </si>
@@ -1821,13 +1821,181 @@
   </si>
   <si>
     <t>Harare</t>
+  </si>
+  <si>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Antarctia (Aust. Ext. Territories)</t>
+  </si>
+  <si>
+    <t>Bosnia Herzegovina</t>
+  </si>
+  <si>
+    <t>Brazilian</t>
+  </si>
+  <si>
+    <t>Congo (Democratic Republic of)</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>Korea (Democratic Peoples Republic of (North))</t>
+  </si>
+  <si>
+    <t>Korea (Republic of (South))</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Kyrgyz Republic</t>
+  </si>
+  <si>
+    <t>Latvia (Alien)</t>
+  </si>
+  <si>
+    <t>Macedonia (FYR)</t>
+  </si>
+  <si>
+    <t>Myanmar (Formerly Burma)</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Samoa(USA)</t>
+  </si>
+  <si>
+    <t>St Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Trinidad &amp; Tobago</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Western Samoa</t>
+  </si>
+  <si>
+    <t>Yugoslavia (Federal Republic of)</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Republic of</t>
+  </si>
+  <si>
+    <t>Korea, Republic of</t>
+  </si>
+  <si>
+    <t>Kosova</t>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+  </si>
+  <si>
+    <t>Macedonia, The Former Yugoslav Republic of</t>
+  </si>
+  <si>
+    <t>Malaysian</t>
+  </si>
+  <si>
+    <t>Moldova, Republic of</t>
+  </si>
+  <si>
+    <t>Paraquay</t>
+  </si>
+  <si>
+    <t>Republic of Serbia</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Serbia and Montenegro</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Tanzania, United Republic of</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>(Not Categorized)</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Korea, Democratic People's Republic of</t>
+  </si>
+  <si>
+    <t>Palestinian Territory,Occupied</t>
+  </si>
+  <si>
+    <t>Ivory Coast</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Congo, The Democratic Republic of the</t>
+  </si>
+  <si>
+    <t>United States Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t>Republic of China</t>
+  </si>
+  <si>
+    <t>Tibet</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2190,14 +2358,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B1C968-BD7A-47B1-B2B0-F423785F7DB9}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
@@ -2205,7 +2374,7 @@
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2219,7 +2388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2233,7 +2402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2247,7 +2416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2261,7 +2430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2275,7 +2444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2289,7 +2458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2303,7 +2472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2317,7 +2486,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2331,7 +2500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -2345,7 +2514,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2359,7 +2528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -2373,7 +2542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2387,7 +2556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -2401,7 +2570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -2415,7 +2584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -2429,7 +2598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -2443,7 +2612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -2457,7 +2626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -2471,7 +2640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -2485,7 +2654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -2499,7 +2668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -2513,7 +2682,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -2527,7 +2696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -2541,7 +2710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -2555,7 +2724,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -2569,7 +2738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -2583,7 +2752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -2597,7 +2766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>90</v>
       </c>
@@ -2611,7 +2780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -2625,7 +2794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -2639,7 +2808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>99</v>
       </c>
@@ -2653,7 +2822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -2667,7 +2836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -2681,7 +2850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>108</v>
       </c>
@@ -2695,7 +2864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>111</v>
       </c>
@@ -2709,7 +2878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -2723,7 +2892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>117</v>
       </c>
@@ -2737,7 +2906,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -2751,7 +2920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -2765,7 +2934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>126</v>
       </c>
@@ -2779,7 +2948,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>129</v>
       </c>
@@ -2793,7 +2962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -2807,7 +2976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>135</v>
       </c>
@@ -2821,7 +2990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>138</v>
       </c>
@@ -2835,7 +3004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>141</v>
       </c>
@@ -2849,7 +3018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>144</v>
       </c>
@@ -2863,7 +3032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>147</v>
       </c>
@@ -2877,7 +3046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>149</v>
       </c>
@@ -2891,7 +3060,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>152</v>
       </c>
@@ -2905,7 +3074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>155</v>
       </c>
@@ -2919,7 +3088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -2933,7 +3102,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>161</v>
       </c>
@@ -2947,7 +3116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>164</v>
       </c>
@@ -2961,7 +3130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>167</v>
       </c>
@@ -2975,7 +3144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>170</v>
       </c>
@@ -2989,7 +3158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>173</v>
       </c>
@@ -3003,7 +3172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>176</v>
       </c>
@@ -3017,7 +3186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>179</v>
       </c>
@@ -3031,7 +3200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>182</v>
       </c>
@@ -3045,7 +3214,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>185</v>
       </c>
@@ -3059,7 +3228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>188</v>
       </c>
@@ -3073,7 +3242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>191</v>
       </c>
@@ -3087,7 +3256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>194</v>
       </c>
@@ -3101,7 +3270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>197</v>
       </c>
@@ -3115,7 +3284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>200</v>
       </c>
@@ -3129,7 +3298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>203</v>
       </c>
@@ -3143,7 +3312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>206</v>
       </c>
@@ -3157,7 +3326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>209</v>
       </c>
@@ -3171,7 +3340,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>212</v>
       </c>
@@ -3185,7 +3354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>215</v>
       </c>
@@ -3199,7 +3368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>218</v>
       </c>
@@ -3213,7 +3382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>221</v>
       </c>
@@ -3227,7 +3396,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>224</v>
       </c>
@@ -3241,7 +3410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>227</v>
       </c>
@@ -3255,7 +3424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>230</v>
       </c>
@@ -3269,7 +3438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>233</v>
       </c>
@@ -3283,7 +3452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>236</v>
       </c>
@@ -3297,7 +3466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>239</v>
       </c>
@@ -3311,7 +3480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>242</v>
       </c>
@@ -3325,7 +3494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>245</v>
       </c>
@@ -3339,7 +3508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>248</v>
       </c>
@@ -3353,7 +3522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>251</v>
       </c>
@@ -3367,7 +3536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>254</v>
       </c>
@@ -3381,7 +3550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>257</v>
       </c>
@@ -3395,7 +3564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>260</v>
       </c>
@@ -3409,7 +3578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>263</v>
       </c>
@@ -3423,7 +3592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>266</v>
       </c>
@@ -3437,7 +3606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>269</v>
       </c>
@@ -3451,7 +3620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>272</v>
       </c>
@@ -3465,7 +3634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>275</v>
       </c>
@@ -3479,7 +3648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>278</v>
       </c>
@@ -3493,7 +3662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>281</v>
       </c>
@@ -3507,7 +3676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>284</v>
       </c>
@@ -3521,7 +3690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>287</v>
       </c>
@@ -3535,7 +3704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>290</v>
       </c>
@@ -3549,7 +3718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>293</v>
       </c>
@@ -3563,7 +3732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>296</v>
       </c>
@@ -3577,7 +3746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>299</v>
       </c>
@@ -3591,7 +3760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>302</v>
       </c>
@@ -3605,7 +3774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>305</v>
       </c>
@@ -3619,7 +3788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>308</v>
       </c>
@@ -3633,7 +3802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>311</v>
       </c>
@@ -3647,7 +3816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>314</v>
       </c>
@@ -3662,7 +3831,7 @@
       </c>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>317</v>
       </c>
@@ -3677,7 +3846,7 @@
       </c>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>320</v>
       </c>
@@ -3692,7 +3861,7 @@
       </c>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>323</v>
       </c>
@@ -3707,7 +3876,7 @@
       </c>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>326</v>
       </c>
@@ -3722,7 +3891,7 @@
       </c>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>329</v>
       </c>
@@ -3737,7 +3906,7 @@
       </c>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>332</v>
       </c>
@@ -3752,7 +3921,7 @@
       </c>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>335</v>
       </c>
@@ -3767,7 +3936,7 @@
       </c>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>338</v>
       </c>
@@ -3782,7 +3951,7 @@
       </c>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>341</v>
       </c>
@@ -3797,7 +3966,7 @@
       </c>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>344</v>
       </c>
@@ -3812,7 +3981,7 @@
       </c>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>347</v>
       </c>
@@ -3827,7 +3996,7 @@
       </c>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>349</v>
       </c>
@@ -3842,7 +4011,7 @@
       </c>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>352</v>
       </c>
@@ -3857,7 +4026,7 @@
       </c>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>355</v>
       </c>
@@ -3872,7 +4041,7 @@
       </c>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>358</v>
       </c>
@@ -3887,7 +4056,7 @@
       </c>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>361</v>
       </c>
@@ -3902,7 +4071,7 @@
       </c>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>364</v>
       </c>
@@ -3917,7 +4086,7 @@
       </c>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>367</v>
       </c>
@@ -3932,7 +4101,7 @@
       </c>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>370</v>
       </c>
@@ -3947,7 +4116,7 @@
       </c>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>373</v>
       </c>
@@ -3962,7 +4131,7 @@
       </c>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>376</v>
       </c>
@@ -3977,7 +4146,7 @@
       </c>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>379</v>
       </c>
@@ -3992,7 +4161,7 @@
       </c>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>382</v>
       </c>
@@ -4007,7 +4176,7 @@
       </c>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>385</v>
       </c>
@@ -4022,7 +4191,7 @@
       </c>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>388</v>
       </c>
@@ -4037,7 +4206,7 @@
       </c>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>391</v>
       </c>
@@ -4052,7 +4221,7 @@
       </c>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>394</v>
       </c>
@@ -4067,7 +4236,7 @@
       </c>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>397</v>
       </c>
@@ -4082,7 +4251,7 @@
       </c>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>400</v>
       </c>
@@ -4097,7 +4266,7 @@
       </c>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>403</v>
       </c>
@@ -4112,7 +4281,7 @@
       </c>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>406</v>
       </c>
@@ -4127,7 +4296,7 @@
       </c>
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>409</v>
       </c>
@@ -4142,7 +4311,7 @@
       </c>
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>412</v>
       </c>
@@ -4157,7 +4326,7 @@
       </c>
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>415</v>
       </c>
@@ -4172,7 +4341,7 @@
       </c>
       <c r="F138" s="1"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>418</v>
       </c>
@@ -4187,7 +4356,7 @@
       </c>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>421</v>
       </c>
@@ -4202,7 +4371,7 @@
       </c>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>424</v>
       </c>
@@ -4217,7 +4386,7 @@
       </c>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>427</v>
       </c>
@@ -4232,7 +4401,7 @@
       </c>
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>430</v>
       </c>
@@ -4247,7 +4416,7 @@
       </c>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>433</v>
       </c>
@@ -4262,7 +4431,7 @@
       </c>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>436</v>
       </c>
@@ -4277,7 +4446,7 @@
       </c>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>439</v>
       </c>
@@ -4292,7 +4461,7 @@
       </c>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>442</v>
       </c>
@@ -4306,7 +4475,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>445</v>
       </c>
@@ -4320,7 +4489,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>448</v>
       </c>
@@ -4334,7 +4503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>450</v>
       </c>
@@ -4348,7 +4517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>453</v>
       </c>
@@ -4362,7 +4531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>456</v>
       </c>
@@ -4376,7 +4545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>459</v>
       </c>
@@ -4390,7 +4559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>462</v>
       </c>
@@ -4404,7 +4573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>465</v>
       </c>
@@ -4418,7 +4587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>468</v>
       </c>
@@ -4432,7 +4601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>470</v>
       </c>
@@ -4446,7 +4615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>473</v>
       </c>
@@ -4460,7 +4629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>476</v>
       </c>
@@ -4474,7 +4643,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>479</v>
       </c>
@@ -4488,7 +4657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>482</v>
       </c>
@@ -4502,7 +4671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>485</v>
       </c>
@@ -4516,7 +4685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>488</v>
       </c>
@@ -4530,7 +4699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>491</v>
       </c>
@@ -4544,7 +4713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>494</v>
       </c>
@@ -4558,7 +4727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>497</v>
       </c>
@@ -4572,7 +4741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>500</v>
       </c>
@@ -4586,7 +4755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>503</v>
       </c>
@@ -4600,7 +4769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>506</v>
       </c>
@@ -4614,7 +4783,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>509</v>
       </c>
@@ -4628,7 +4797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>512</v>
       </c>
@@ -4642,7 +4811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>515</v>
       </c>
@@ -4656,7 +4825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>518</v>
       </c>
@@ -4670,7 +4839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>521</v>
       </c>
@@ -4684,7 +4853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>524</v>
       </c>
@@ -4698,7 +4867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>527</v>
       </c>
@@ -4712,7 +4881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>530</v>
       </c>
@@ -4726,7 +4895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>533</v>
       </c>
@@ -4740,7 +4909,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>536</v>
       </c>
@@ -4754,7 +4923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>539</v>
       </c>
@@ -4768,7 +4937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>542</v>
       </c>
@@ -4782,7 +4951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>545</v>
       </c>
@@ -4796,7 +4965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>548</v>
       </c>
@@ -4810,7 +4979,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>551</v>
       </c>
@@ -4824,7 +4993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>554</v>
       </c>
@@ -4838,7 +5007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>557</v>
       </c>
@@ -4852,7 +5021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>560</v>
       </c>
@@ -4866,7 +5035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>563</v>
       </c>
@@ -4880,7 +5049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>566</v>
       </c>
@@ -4894,7 +5063,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>569</v>
       </c>
@@ -4908,7 +5077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>572</v>
       </c>
@@ -4922,7 +5091,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>575</v>
       </c>
@@ -4936,7 +5105,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>578</v>
       </c>
@@ -4950,7 +5119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>581</v>
       </c>
@@ -4964,7 +5133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>584</v>
       </c>
@@ -4978,7 +5147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>587</v>
       </c>
@@ -4994,9 +5163,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D196" xr:uid="{F0B1C968-BD7A-47B1-B2B0-F423785F7DB9}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D196">
-      <sortCondition ref="A1:A196"/>
-    </sortState>
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Brunei"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5004,6 +5175,457 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030FD0AA-FF69-4EA8-83A4-6C7B552075D1}">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>595</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>596</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>597</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>599</v>
+      </c>
+      <c r="B9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>600</v>
+      </c>
+      <c r="B10" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>601</v>
+      </c>
+      <c r="B11" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>602</v>
+      </c>
+      <c r="B12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>603</v>
+      </c>
+      <c r="B13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>604</v>
+      </c>
+      <c r="B14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>605</v>
+      </c>
+      <c r="B15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>606</v>
+      </c>
+      <c r="B16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>607</v>
+      </c>
+      <c r="B17" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>608</v>
+      </c>
+      <c r="B18" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>609</v>
+      </c>
+      <c r="B19" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>610</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>611</v>
+      </c>
+      <c r="B21" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>612</v>
+      </c>
+      <c r="B22" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>613</v>
+      </c>
+      <c r="B23" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>614</v>
+      </c>
+      <c r="B24" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>615</v>
+      </c>
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>616</v>
+      </c>
+      <c r="B26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>617</v>
+      </c>
+      <c r="B27" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>618</v>
+      </c>
+      <c r="B28" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>619</v>
+      </c>
+      <c r="B29" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>620</v>
+      </c>
+      <c r="B30" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>621</v>
+      </c>
+      <c r="B31" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>622</v>
+      </c>
+      <c r="B32" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>623</v>
+      </c>
+      <c r="B33" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>624</v>
+      </c>
+      <c r="B34" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>625</v>
+      </c>
+      <c r="B35" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>626</v>
+      </c>
+      <c r="B36" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>627</v>
+      </c>
+      <c r="B37" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>628</v>
+      </c>
+      <c r="B38" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>629</v>
+      </c>
+      <c r="B39" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>630</v>
+      </c>
+      <c r="B40" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>632</v>
+      </c>
+      <c r="B41" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>633</v>
+      </c>
+      <c r="B42" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>634</v>
+      </c>
+      <c r="B43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>635</v>
+      </c>
+      <c r="B44" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>636</v>
+      </c>
+      <c r="B45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>637</v>
+      </c>
+      <c r="B46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>638</v>
+      </c>
+      <c r="B47" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>639</v>
+      </c>
+      <c r="B48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>640</v>
+      </c>
+      <c r="B49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>641</v>
+      </c>
+      <c r="B50" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>642</v>
+      </c>
+      <c r="B51" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>643</v>
+      </c>
+      <c r="B52" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>644</v>
+      </c>
+      <c r="B53" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2966975A-43A7-4F32-BB18-D17DB5E74448}">
   <dimension ref="A1:F55"/>
   <sheetViews>
@@ -5012,7 +5634,7 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
@@ -5020,7 +5642,7 @@
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5034,7 +5656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5048,7 +5670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -5062,7 +5684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -5076,7 +5698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -5090,7 +5712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -5104,7 +5726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -5118,7 +5740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -5132,7 +5754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -5146,7 +5768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -5160,7 +5782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -5174,7 +5796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -5188,7 +5810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>123</v>
       </c>
@@ -5202,7 +5824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -5216,7 +5838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>147</v>
       </c>
@@ -5230,7 +5852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -5244,7 +5866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -5258,7 +5880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -5272,7 +5894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>170</v>
       </c>
@@ -5286,7 +5908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>176</v>
       </c>
@@ -5300,7 +5922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>179</v>
       </c>
@@ -5314,7 +5936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>191</v>
       </c>
@@ -5328,7 +5950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>194</v>
       </c>
@@ -5342,7 +5964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>203</v>
       </c>
@@ -5356,7 +5978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>215</v>
       </c>
@@ -5370,7 +5992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>218</v>
       </c>
@@ -5384,7 +6006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>272</v>
       </c>
@@ -5398,7 +6020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>293</v>
       </c>
@@ -5412,7 +6034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>296</v>
       </c>
@@ -5426,7 +6048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>299</v>
       </c>
@@ -5440,7 +6062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>311</v>
       </c>
@@ -5454,7 +6076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>314</v>
       </c>
@@ -5469,7 +6091,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>323</v>
       </c>
@@ -5484,7 +6106,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>332</v>
       </c>
@@ -5499,7 +6121,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>335</v>
       </c>
@@ -5514,7 +6136,7 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>355</v>
       </c>
@@ -5529,7 +6151,7 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>358</v>
       </c>
@@ -5544,7 +6166,7 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>364</v>
       </c>
@@ -5559,7 +6181,7 @@
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>382</v>
       </c>
@@ -5574,7 +6196,7 @@
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>385</v>
       </c>
@@ -5589,7 +6211,7 @@
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>436</v>
       </c>
@@ -5604,7 +6226,7 @@
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>450</v>
       </c>
@@ -5618,7 +6240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>456</v>
       </c>
@@ -5632,7 +6254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>462</v>
       </c>
@@ -5646,7 +6268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>465</v>
       </c>
@@ -5660,7 +6282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>479</v>
       </c>
@@ -5674,7 +6296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>482</v>
       </c>
@@ -5688,7 +6310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>488</v>
       </c>
@@ -5702,7 +6324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>503</v>
       </c>
@@ -5716,7 +6338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>521</v>
       </c>
@@ -5730,7 +6352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>530</v>
       </c>
@@ -5744,7 +6366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>539</v>
       </c>
@@ -5758,7 +6380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>551</v>
       </c>
@@ -5772,7 +6394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>584</v>
       </c>
@@ -5786,7 +6408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>587</v>
       </c>
@@ -5811,7 +6433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF9921E-A6F2-45BF-A169-17C167A73C47}">
   <dimension ref="A1:F49"/>
   <sheetViews>
@@ -5820,7 +6442,7 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
@@ -5828,7 +6450,7 @@
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5842,7 +6464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -5856,7 +6478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -5870,7 +6492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -5884,7 +6506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -5898,7 +6520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -5912,7 +6534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -5926,7 +6548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -5940,7 +6562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -5954,7 +6576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -5968,7 +6590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>138</v>
       </c>
@@ -5982,7 +6604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>197</v>
       </c>
@@ -5996,7 +6618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -6010,7 +6632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>242</v>
       </c>
@@ -6024,7 +6646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>245</v>
       </c>
@@ -6038,7 +6660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>248</v>
       </c>
@@ -6052,7 +6674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>254</v>
       </c>
@@ -6066,7 +6688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>263</v>
       </c>
@@ -6080,7 +6702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>266</v>
       </c>
@@ -6094,7 +6716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>269</v>
       </c>
@@ -6108,7 +6730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>278</v>
       </c>
@@ -6122,7 +6744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>281</v>
       </c>
@@ -6136,7 +6758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>284</v>
       </c>
@@ -6150,7 +6772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>290</v>
       </c>
@@ -6164,7 +6786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>317</v>
       </c>
@@ -6179,7 +6801,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>320</v>
       </c>
@@ -6194,7 +6816,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>349</v>
       </c>
@@ -6209,7 +6831,7 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>361</v>
       </c>
@@ -6224,7 +6846,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>370</v>
       </c>
@@ -6239,7 +6861,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>388</v>
       </c>
@@ -6254,7 +6876,7 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>397</v>
       </c>
@@ -6269,7 +6891,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>400</v>
       </c>
@@ -6284,7 +6906,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>418</v>
       </c>
@@ -6299,7 +6921,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>427</v>
       </c>
@@ -6314,7 +6936,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>453</v>
       </c>
@@ -6328,7 +6950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>468</v>
       </c>
@@ -6342,7 +6964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>485</v>
       </c>
@@ -6356,7 +6978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>494</v>
       </c>
@@ -6370,7 +6992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>500</v>
       </c>
@@ -6384,7 +7006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>515</v>
       </c>
@@ -6398,7 +7020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>518</v>
       </c>
@@ -6412,7 +7034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>524</v>
       </c>
@@ -6426,7 +7048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>527</v>
       </c>
@@ -6440,7 +7062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>542</v>
       </c>
@@ -6454,7 +7076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>545</v>
       </c>
@@ -6468,7 +7090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>557</v>
       </c>
@@ -6482,7 +7104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>569</v>
       </c>
@@ -6496,7 +7118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>578</v>
       </c>
@@ -6510,7 +7132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>581</v>
       </c>
@@ -6535,7 +7157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB68224-61C6-4132-9031-F2D67E3DAA46}">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -6544,7 +7166,7 @@
       <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
@@ -6552,7 +7174,7 @@
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6566,7 +7188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -6580,7 +7202,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -6594,7 +7216,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -6608,7 +7230,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>329</v>
       </c>
@@ -6623,7 +7245,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>341</v>
       </c>
@@ -6638,7 +7260,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>367</v>
       </c>
@@ -6653,7 +7275,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>376</v>
       </c>
@@ -6668,7 +7290,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>403</v>
       </c>
@@ -6683,7 +7305,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>409</v>
       </c>
@@ -6698,7 +7320,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>445</v>
       </c>
@@ -6712,7 +7334,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>476</v>
       </c>
@@ -6726,7 +7348,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>533</v>
       </c>
@@ -6740,7 +7362,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>548</v>
       </c>
@@ -6754,7 +7376,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>572</v>
       </c>
@@ -6779,7 +7401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2531CFF2-F162-486D-AB6A-A33F4742B079}">
   <dimension ref="A1:F45"/>
   <sheetViews>
@@ -6788,7 +7410,7 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
@@ -6796,7 +7418,7 @@
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6810,7 +7432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -6824,7 +7446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -6838,7 +7460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -6852,7 +7474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -6866,7 +7488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -6880,7 +7502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -6894,7 +7516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -6908,7 +7530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -6922,7 +7544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -6936,7 +7558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -6950,7 +7572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>173</v>
       </c>
@@ -6964,7 +7586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>185</v>
       </c>
@@ -6978,7 +7600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>188</v>
       </c>
@@ -6992,7 +7614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>200</v>
       </c>
@@ -7006,7 +7628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>206</v>
       </c>
@@ -7020,7 +7642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>227</v>
       </c>
@@ -7034,7 +7656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>233</v>
       </c>
@@ -7048,7 +7670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>236</v>
       </c>
@@ -7062,7 +7684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>251</v>
       </c>
@@ -7076,7 +7698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>257</v>
       </c>
@@ -7090,7 +7712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>287</v>
       </c>
@@ -7104,7 +7726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>302</v>
       </c>
@@ -7118,7 +7740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>305</v>
       </c>
@@ -7132,7 +7754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>308</v>
       </c>
@@ -7146,7 +7768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>326</v>
       </c>
@@ -7161,7 +7783,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>344</v>
       </c>
@@ -7176,7 +7798,7 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>347</v>
       </c>
@@ -7191,7 +7813,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>352</v>
       </c>
@@ -7206,7 +7828,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>373</v>
       </c>
@@ -7221,7 +7843,7 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>391</v>
       </c>
@@ -7236,7 +7858,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>394</v>
       </c>
@@ -7251,7 +7873,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>421</v>
       </c>
@@ -7266,7 +7888,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>424</v>
       </c>
@@ -7281,7 +7903,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>430</v>
       </c>
@@ -7296,7 +7918,7 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>433</v>
       </c>
@@ -7311,7 +7933,7 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>448</v>
       </c>
@@ -7325,7 +7947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>459</v>
       </c>
@@ -7339,7 +7961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>470</v>
       </c>
@@ -7353,7 +7975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>473</v>
       </c>
@@ -7367,7 +7989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>491</v>
       </c>
@@ -7381,7 +8003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>509</v>
       </c>
@@ -7395,7 +8017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>512</v>
       </c>
@@ -7409,7 +8031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>554</v>
       </c>
@@ -7423,7 +8045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>560</v>
       </c>
@@ -7448,7 +8070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8ED361E-B081-4367-95FA-0B5C1DB58396}">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -7457,7 +8079,7 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
@@ -7465,7 +8087,7 @@
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7479,7 +8101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -7493,7 +8115,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -7507,7 +8129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -7521,7 +8143,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -7535,7 +8157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -7549,7 +8171,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -7563,7 +8185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>135</v>
       </c>
@@ -7577,7 +8199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -7591,7 +8213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -7605,7 +8227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>164</v>
       </c>
@@ -7619,7 +8241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -7633,7 +8255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>212</v>
       </c>
@@ -7647,7 +8269,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>224</v>
       </c>
@@ -7661,7 +8283,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>230</v>
       </c>
@@ -7675,7 +8297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>260</v>
       </c>
@@ -7689,7 +8311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>338</v>
       </c>
@@ -7704,7 +8326,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>379</v>
       </c>
@@ -7719,7 +8341,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>406</v>
       </c>
@@ -7734,7 +8356,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>439</v>
       </c>
@@ -7749,7 +8371,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>442</v>
       </c>
@@ -7763,7 +8385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>497</v>
       </c>
@@ -7777,7 +8399,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>536</v>
       </c>
@@ -7791,7 +8413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>563</v>
       </c>
@@ -7812,7 +8434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CC7BAF-0753-48D0-9D8C-45217DE022DF}">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -7821,7 +8443,7 @@
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
@@ -7829,7 +8451,7 @@
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7843,7 +8465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -7857,7 +8479,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -7871,7 +8493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -7885,7 +8507,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -7899,7 +8521,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -7913,7 +8535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -7927,7 +8549,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>221</v>
       </c>
@@ -7941,7 +8563,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>412</v>
       </c>
@@ -7956,7 +8578,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>415</v>
       </c>
@@ -7971,7 +8593,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>506</v>
       </c>
@@ -7985,7 +8607,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>566</v>
       </c>
@@ -7999,7 +8621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>575</v>
       </c>

--- a/data/world_countries.xlsx
+++ b/data/world_countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\ESTUDOS DATA SCIENCE\ie-employment-permit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845CCEEA-5AF3-4041-B9BC-915D5291D891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6F65D5-AA5F-43AC-BD67-CC41553FF15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{20B413F9-C870-4C80-9652-07DD00D52B38}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="647">
   <si>
     <t>Country</t>
   </si>
@@ -1989,13 +1989,16 @@
   </si>
   <si>
     <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Channel Islands</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2010,6 +2013,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2026,7 +2035,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2034,15 +2043,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5176,10 +5203,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030FD0AA-FF69-4EA8-83A4-6C7B552075D1}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5618,6 +5645,14 @@
       </c>
       <c r="B54" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B55" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>

--- a/data/world_countries.xlsx
+++ b/data/world_countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\ESTUDOS DATA SCIENCE\ie-employment-permit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6F65D5-AA5F-43AC-BD67-CC41553FF15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898E2267-C7BE-4711-BA6F-23A88311C0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{20B413F9-C870-4C80-9652-07DD00D52B38}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Africa!$A$1:$D$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Asia!$A$1:$D$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Australia!$A$1:$D$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aux_Table!$A$1:$B$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aux_Table!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Europe!$A$1:$D$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'N. America'!$A$1:$D$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'S. America'!$A$1:$D$13</definedName>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="652">
   <si>
     <t>Country</t>
   </si>
@@ -1992,13 +1992,32 @@
   </si>
   <si>
     <t>Channel Islands</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Türkiye</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2015,7 +2034,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2059,8 +2085,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2068,11 +2095,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2390,7 +2418,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomLeft" activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2751,7 +2779,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -4964,7 +4992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>542</v>
       </c>
@@ -4978,7 +5006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>545</v>
       </c>
@@ -5192,7 +5220,8 @@
   <autoFilter ref="A1:D196" xr:uid="{F0B1C968-BD7A-47B1-B2B0-F423785F7DB9}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Brunei"/>
+        <filter val="Turkey"/>
+        <filter val="Turkmenistan"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5203,10 +5232,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030FD0AA-FF69-4EA8-83A4-6C7B552075D1}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5648,14 +5677,55 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" t="s">
         <v>646</v>
       </c>
       <c r="B55" t="s">
         <v>560</v>
       </c>
     </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>647</v>
+      </c>
+      <c r="B56" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>649</v>
+      </c>
+      <c r="B57" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>648</v>
+      </c>
+      <c r="B58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B59" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="B60" t="s">
+        <v>542</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{030FD0AA-FF69-4EA8-83A4-6C7B552075D1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/world_countries.xlsx
+++ b/data/world_countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\ESTUDOS DATA SCIENCE\ie-employment-permit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898E2267-C7BE-4711-BA6F-23A88311C0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49B6A79-B278-416D-9BBF-A77A01FBA928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{20B413F9-C870-4C80-9652-07DD00D52B38}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="654">
   <si>
     <t>Country</t>
   </si>
@@ -2007,17 +2007,19 @@
   </si>
   <si>
     <t>Türkiye</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2032,19 +2034,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2061,7 +2050,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2069,38 +2058,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5232,10 +5201,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030FD0AA-FF69-4EA8-83A4-6C7B552075D1}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5709,7 +5678,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" t="s">
         <v>650</v>
       </c>
       <c r="B59" t="s">
@@ -5717,11 +5686,27 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="A60" t="s">
         <v>651</v>
       </c>
       <c r="B60" t="s">
         <v>542</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>652</v>
+      </c>
+      <c r="B61" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>653</v>
+      </c>
+      <c r="B62" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>

--- a/data/world_countries.xlsx
+++ b/data/world_countries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\ESTUDOS DATA SCIENCE\ie-employment-permit\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\ESTUDOS DATA SCIENCE\ie-employment-permit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49B6A79-B278-416D-9BBF-A77A01FBA928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86DF7D5-91C2-4556-942E-4A3DBF2F243E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{20B413F9-C870-4C80-9652-07DD00D52B38}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{20B413F9-C870-4C80-9652-07DD00D52B38}"/>
   </bookViews>
   <sheets>
     <sheet name="World" sheetId="1" r:id="rId1"/>
@@ -46,12 +46,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="657">
   <si>
     <t>Country</t>
   </si>
@@ -2013,6 +2016,15 @@
   </si>
   <si>
     <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Aland Islands</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
   </si>
 </sst>
 </file>
@@ -2382,23 +2394,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B1C968-BD7A-47B1-B2B0-F423785F7DB9}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A181" sqref="A181"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2412,7 +2423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2426,7 +2437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2440,7 +2451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2454,7 +2465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2468,7 +2479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2482,7 +2493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2496,7 +2507,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2510,7 +2521,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2524,7 +2535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -2538,7 +2549,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2552,7 +2563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -2566,7 +2577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2580,7 +2591,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -2594,7 +2605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -2608,7 +2619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -2622,7 +2633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -2636,7 +2647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -2650,7 +2661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -2664,7 +2675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -2678,7 +2689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -2692,7 +2703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -2706,7 +2717,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -2720,7 +2731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -2734,7 +2745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -2748,7 +2759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -2762,7 +2773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -2776,7 +2787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -2790,7 +2801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>90</v>
       </c>
@@ -2804,7 +2815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -2818,7 +2829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -2832,7 +2843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>99</v>
       </c>
@@ -2846,7 +2857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -2860,7 +2871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -2874,7 +2885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>108</v>
       </c>
@@ -2888,7 +2899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>111</v>
       </c>
@@ -2902,7 +2913,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -2916,7 +2927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>117</v>
       </c>
@@ -2930,7 +2941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -2944,7 +2955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -2958,7 +2969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>126</v>
       </c>
@@ -2972,7 +2983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>129</v>
       </c>
@@ -2986,7 +2997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -3000,7 +3011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>135</v>
       </c>
@@ -3014,7 +3025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>138</v>
       </c>
@@ -3028,7 +3039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>141</v>
       </c>
@@ -3042,7 +3053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>144</v>
       </c>
@@ -3056,7 +3067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>147</v>
       </c>
@@ -3070,7 +3081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>149</v>
       </c>
@@ -3084,7 +3095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>152</v>
       </c>
@@ -3098,7 +3109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>155</v>
       </c>
@@ -3112,7 +3123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -3126,7 +3137,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>161</v>
       </c>
@@ -3140,7 +3151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>164</v>
       </c>
@@ -3154,7 +3165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>167</v>
       </c>
@@ -3168,7 +3179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>170</v>
       </c>
@@ -3182,7 +3193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>173</v>
       </c>
@@ -3196,7 +3207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>176</v>
       </c>
@@ -3210,7 +3221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>179</v>
       </c>
@@ -3224,7 +3235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>182</v>
       </c>
@@ -3238,7 +3249,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>185</v>
       </c>
@@ -3252,7 +3263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>188</v>
       </c>
@@ -3266,7 +3277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>191</v>
       </c>
@@ -3280,7 +3291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>194</v>
       </c>
@@ -3294,7 +3305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>197</v>
       </c>
@@ -3308,7 +3319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>200</v>
       </c>
@@ -3322,7 +3333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>203</v>
       </c>
@@ -3336,7 +3347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>206</v>
       </c>
@@ -3350,7 +3361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>209</v>
       </c>
@@ -3364,7 +3375,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>212</v>
       </c>
@@ -3378,7 +3389,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>215</v>
       </c>
@@ -3392,7 +3403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>218</v>
       </c>
@@ -3406,7 +3417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>221</v>
       </c>
@@ -3420,7 +3431,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>224</v>
       </c>
@@ -3434,7 +3445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>227</v>
       </c>
@@ -3448,7 +3459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>230</v>
       </c>
@@ -3462,7 +3473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>233</v>
       </c>
@@ -3476,7 +3487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>236</v>
       </c>
@@ -3490,7 +3501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>239</v>
       </c>
@@ -3504,7 +3515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>242</v>
       </c>
@@ -3518,7 +3529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>245</v>
       </c>
@@ -3532,7 +3543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>248</v>
       </c>
@@ -3546,7 +3557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>251</v>
       </c>
@@ -3560,7 +3571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>254</v>
       </c>
@@ -3574,7 +3585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>257</v>
       </c>
@@ -3588,7 +3599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>260</v>
       </c>
@@ -3602,7 +3613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>263</v>
       </c>
@@ -3616,7 +3627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>266</v>
       </c>
@@ -3630,7 +3641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>269</v>
       </c>
@@ -3644,7 +3655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>272</v>
       </c>
@@ -3658,7 +3669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>275</v>
       </c>
@@ -3672,7 +3683,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>278</v>
       </c>
@@ -3686,7 +3697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>281</v>
       </c>
@@ -3700,7 +3711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>284</v>
       </c>
@@ -3714,7 +3725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>287</v>
       </c>
@@ -3728,7 +3739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>290</v>
       </c>
@@ -3742,7 +3753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>293</v>
       </c>
@@ -3756,7 +3767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>296</v>
       </c>
@@ -3770,7 +3781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>299</v>
       </c>
@@ -3784,7 +3795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>302</v>
       </c>
@@ -3798,7 +3809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>305</v>
       </c>
@@ -3812,7 +3823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>308</v>
       </c>
@@ -3826,7 +3837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>311</v>
       </c>
@@ -3840,7 +3851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>314</v>
       </c>
@@ -3855,7 +3866,7 @@
       </c>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>317</v>
       </c>
@@ -3870,7 +3881,7 @@
       </c>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>320</v>
       </c>
@@ -3885,7 +3896,7 @@
       </c>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>323</v>
       </c>
@@ -3900,7 +3911,7 @@
       </c>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>326</v>
       </c>
@@ -3915,7 +3926,7 @@
       </c>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>329</v>
       </c>
@@ -3930,7 +3941,7 @@
       </c>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>332</v>
       </c>
@@ -3945,7 +3956,7 @@
       </c>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>335</v>
       </c>
@@ -3960,7 +3971,7 @@
       </c>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>338</v>
       </c>
@@ -3975,7 +3986,7 @@
       </c>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>341</v>
       </c>
@@ -3990,7 +4001,7 @@
       </c>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>344</v>
       </c>
@@ -4005,7 +4016,7 @@
       </c>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>347</v>
       </c>
@@ -4020,7 +4031,7 @@
       </c>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>349</v>
       </c>
@@ -4035,7 +4046,7 @@
       </c>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>352</v>
       </c>
@@ -4050,7 +4061,7 @@
       </c>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>355</v>
       </c>
@@ -4065,7 +4076,7 @@
       </c>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>358</v>
       </c>
@@ -4080,7 +4091,7 @@
       </c>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>361</v>
       </c>
@@ -4095,7 +4106,7 @@
       </c>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>364</v>
       </c>
@@ -4110,7 +4121,7 @@
       </c>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>367</v>
       </c>
@@ -4125,7 +4136,7 @@
       </c>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>370</v>
       </c>
@@ -4140,7 +4151,7 @@
       </c>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>373</v>
       </c>
@@ -4155,7 +4166,7 @@
       </c>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>376</v>
       </c>
@@ -4170,7 +4181,7 @@
       </c>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>379</v>
       </c>
@@ -4185,7 +4196,7 @@
       </c>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>382</v>
       </c>
@@ -4200,7 +4211,7 @@
       </c>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>385</v>
       </c>
@@ -4215,7 +4226,7 @@
       </c>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>388</v>
       </c>
@@ -4230,7 +4241,7 @@
       </c>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>391</v>
       </c>
@@ -4245,7 +4256,7 @@
       </c>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>394</v>
       </c>
@@ -4260,7 +4271,7 @@
       </c>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>397</v>
       </c>
@@ -4275,7 +4286,7 @@
       </c>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>400</v>
       </c>
@@ -4290,7 +4301,7 @@
       </c>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>403</v>
       </c>
@@ -4305,7 +4316,7 @@
       </c>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>406</v>
       </c>
@@ -4320,7 +4331,7 @@
       </c>
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>409</v>
       </c>
@@ -4335,7 +4346,7 @@
       </c>
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>412</v>
       </c>
@@ -4350,7 +4361,7 @@
       </c>
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>415</v>
       </c>
@@ -4365,7 +4376,7 @@
       </c>
       <c r="F138" s="1"/>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>418</v>
       </c>
@@ -4380,7 +4391,7 @@
       </c>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>421</v>
       </c>
@@ -4395,7 +4406,7 @@
       </c>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>424</v>
       </c>
@@ -4410,7 +4421,7 @@
       </c>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>427</v>
       </c>
@@ -4425,7 +4436,7 @@
       </c>
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>430</v>
       </c>
@@ -4440,7 +4451,7 @@
       </c>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>433</v>
       </c>
@@ -4455,7 +4466,7 @@
       </c>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>436</v>
       </c>
@@ -4470,7 +4481,7 @@
       </c>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>439</v>
       </c>
@@ -4485,7 +4496,7 @@
       </c>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>442</v>
       </c>
@@ -4499,7 +4510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>445</v>
       </c>
@@ -4513,7 +4524,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>448</v>
       </c>
@@ -4527,7 +4538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>450</v>
       </c>
@@ -4541,7 +4552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>453</v>
       </c>
@@ -4555,7 +4566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>456</v>
       </c>
@@ -4569,7 +4580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>459</v>
       </c>
@@ -4583,7 +4594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>462</v>
       </c>
@@ -4597,7 +4608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>465</v>
       </c>
@@ -4611,7 +4622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>468</v>
       </c>
@@ -4625,7 +4636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>470</v>
       </c>
@@ -4639,7 +4650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>473</v>
       </c>
@@ -4653,7 +4664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>476</v>
       </c>
@@ -4667,7 +4678,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>479</v>
       </c>
@@ -4681,7 +4692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>482</v>
       </c>
@@ -4695,7 +4706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>485</v>
       </c>
@@ -4709,7 +4720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>488</v>
       </c>
@@ -4723,7 +4734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>491</v>
       </c>
@@ -4737,7 +4748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>494</v>
       </c>
@@ -4751,7 +4762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>497</v>
       </c>
@@ -4765,7 +4776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>500</v>
       </c>
@@ -4779,7 +4790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>503</v>
       </c>
@@ -4793,7 +4804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>506</v>
       </c>
@@ -4807,7 +4818,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>509</v>
       </c>
@@ -4821,7 +4832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>512</v>
       </c>
@@ -4835,7 +4846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>515</v>
       </c>
@@ -4849,7 +4860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>518</v>
       </c>
@@ -4863,7 +4874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>521</v>
       </c>
@@ -4877,7 +4888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>524</v>
       </c>
@@ -4891,7 +4902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>527</v>
       </c>
@@ -4905,7 +4916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>530</v>
       </c>
@@ -4919,7 +4930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>533</v>
       </c>
@@ -4933,7 +4944,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>536</v>
       </c>
@@ -4947,7 +4958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>539</v>
       </c>
@@ -4961,7 +4972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>542</v>
       </c>
@@ -4975,7 +4986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>545</v>
       </c>
@@ -4989,7 +5000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>548</v>
       </c>
@@ -5003,7 +5014,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>551</v>
       </c>
@@ -5017,7 +5028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>554</v>
       </c>
@@ -5031,7 +5042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>557</v>
       </c>
@@ -5045,7 +5056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>560</v>
       </c>
@@ -5059,7 +5070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>563</v>
       </c>
@@ -5073,7 +5084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>566</v>
       </c>
@@ -5087,7 +5098,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>569</v>
       </c>
@@ -5101,7 +5112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>572</v>
       </c>
@@ -5115,7 +5126,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>575</v>
       </c>
@@ -5129,7 +5140,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>578</v>
       </c>
@@ -5143,7 +5154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>581</v>
       </c>
@@ -5157,7 +5168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>584</v>
       </c>
@@ -5171,7 +5182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>587</v>
       </c>
@@ -5186,14 +5197,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D196" xr:uid="{F0B1C968-BD7A-47B1-B2B0-F423785F7DB9}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Turkey"/>
-        <filter val="Turkmenistan"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D196" xr:uid="{F0B1C968-BD7A-47B1-B2B0-F423785F7DB9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -5201,19 +5205,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030FD0AA-FF69-4EA8-83A4-6C7B552075D1}">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>590</v>
       </c>
@@ -5221,7 +5225,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>592</v>
       </c>
@@ -5229,7 +5233,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>593</v>
       </c>
@@ -5237,7 +5241,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>594</v>
       </c>
@@ -5245,7 +5249,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>595</v>
       </c>
@@ -5253,7 +5257,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>596</v>
       </c>
@@ -5261,7 +5265,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>597</v>
       </c>
@@ -5269,7 +5273,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>598</v>
       </c>
@@ -5277,7 +5281,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>599</v>
       </c>
@@ -5285,7 +5289,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>600</v>
       </c>
@@ -5293,7 +5297,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>601</v>
       </c>
@@ -5301,7 +5305,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>602</v>
       </c>
@@ -5309,7 +5313,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>603</v>
       </c>
@@ -5317,7 +5321,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>604</v>
       </c>
@@ -5325,7 +5329,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>605</v>
       </c>
@@ -5333,7 +5337,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>606</v>
       </c>
@@ -5341,7 +5345,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>607</v>
       </c>
@@ -5349,7 +5353,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>608</v>
       </c>
@@ -5357,7 +5361,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>609</v>
       </c>
@@ -5365,7 +5369,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>610</v>
       </c>
@@ -5373,7 +5377,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>611</v>
       </c>
@@ -5381,7 +5385,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>612</v>
       </c>
@@ -5389,7 +5393,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>613</v>
       </c>
@@ -5397,7 +5401,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>614</v>
       </c>
@@ -5405,7 +5409,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>615</v>
       </c>
@@ -5413,7 +5417,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>616</v>
       </c>
@@ -5421,7 +5425,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>617</v>
       </c>
@@ -5429,7 +5433,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>618</v>
       </c>
@@ -5437,7 +5441,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>619</v>
       </c>
@@ -5445,7 +5449,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>620</v>
       </c>
@@ -5453,7 +5457,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>621</v>
       </c>
@@ -5461,7 +5465,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>622</v>
       </c>
@@ -5469,7 +5473,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>623</v>
       </c>
@@ -5477,7 +5481,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>624</v>
       </c>
@@ -5485,7 +5489,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>625</v>
       </c>
@@ -5493,7 +5497,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>626</v>
       </c>
@@ -5501,7 +5505,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>627</v>
       </c>
@@ -5509,7 +5513,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>628</v>
       </c>
@@ -5517,7 +5521,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>629</v>
       </c>
@@ -5525,7 +5529,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>630</v>
       </c>
@@ -5533,7 +5537,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>632</v>
       </c>
@@ -5541,7 +5545,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>633</v>
       </c>
@@ -5549,7 +5553,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>634</v>
       </c>
@@ -5557,7 +5561,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>635</v>
       </c>
@@ -5565,7 +5569,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>636</v>
       </c>
@@ -5573,7 +5577,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>637</v>
       </c>
@@ -5581,7 +5585,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>638</v>
       </c>
@@ -5589,7 +5593,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>639</v>
       </c>
@@ -5597,7 +5601,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>640</v>
       </c>
@@ -5605,7 +5609,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>641</v>
       </c>
@@ -5613,7 +5617,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>642</v>
       </c>
@@ -5621,7 +5625,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>643</v>
       </c>
@@ -5629,7 +5633,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>644</v>
       </c>
@@ -5637,7 +5641,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>645</v>
       </c>
@@ -5645,7 +5649,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>646</v>
       </c>
@@ -5653,7 +5657,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>647</v>
       </c>
@@ -5661,7 +5665,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>649</v>
       </c>
@@ -5669,7 +5673,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>648</v>
       </c>
@@ -5677,7 +5681,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>650</v>
       </c>
@@ -5685,7 +5689,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>651</v>
       </c>
@@ -5693,7 +5697,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>652</v>
       </c>
@@ -5701,12 +5705,36 @@
         <v>394</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>653</v>
       </c>
       <c r="B62" t="s">
         <v>560</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>654</v>
+      </c>
+      <c r="B63" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>655</v>
+      </c>
+      <c r="B64" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>656</v>
+      </c>
+      <c r="B65" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5724,15 +5752,15 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5746,7 +5774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5760,7 +5788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -5774,7 +5802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -5788,7 +5816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -5802,7 +5830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -5816,7 +5844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -5830,7 +5858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -5844,7 +5872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -5858,7 +5886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -5872,7 +5900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -5886,7 +5914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -5900,7 +5928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>123</v>
       </c>
@@ -5914,7 +5942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -5928,7 +5956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>147</v>
       </c>
@@ -5942,7 +5970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -5956,7 +5984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -5970,7 +5998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -5984,7 +6012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>170</v>
       </c>
@@ -5998,7 +6026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>176</v>
       </c>
@@ -6012,7 +6040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>179</v>
       </c>
@@ -6026,7 +6054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>191</v>
       </c>
@@ -6040,7 +6068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>194</v>
       </c>
@@ -6054,7 +6082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>203</v>
       </c>
@@ -6068,7 +6096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>215</v>
       </c>
@@ -6082,7 +6110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>218</v>
       </c>
@@ -6096,7 +6124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>272</v>
       </c>
@@ -6110,7 +6138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>293</v>
       </c>
@@ -6124,7 +6152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>296</v>
       </c>
@@ -6138,7 +6166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>299</v>
       </c>
@@ -6152,7 +6180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>311</v>
       </c>
@@ -6166,7 +6194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>314</v>
       </c>
@@ -6181,7 +6209,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>323</v>
       </c>
@@ -6196,7 +6224,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>332</v>
       </c>
@@ -6211,7 +6239,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>335</v>
       </c>
@@ -6226,7 +6254,7 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>355</v>
       </c>
@@ -6241,7 +6269,7 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>358</v>
       </c>
@@ -6256,7 +6284,7 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>364</v>
       </c>
@@ -6271,7 +6299,7 @@
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>382</v>
       </c>
@@ -6286,7 +6314,7 @@
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>385</v>
       </c>
@@ -6301,7 +6329,7 @@
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>436</v>
       </c>
@@ -6316,7 +6344,7 @@
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>450</v>
       </c>
@@ -6330,7 +6358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>456</v>
       </c>
@@ -6344,7 +6372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>462</v>
       </c>
@@ -6358,7 +6386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>465</v>
       </c>
@@ -6372,7 +6400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>479</v>
       </c>
@@ -6386,7 +6414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>482</v>
       </c>
@@ -6400,7 +6428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>488</v>
       </c>
@@ -6414,7 +6442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>503</v>
       </c>
@@ -6428,7 +6456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>521</v>
       </c>
@@ -6442,7 +6470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>530</v>
       </c>
@@ -6456,7 +6484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>539</v>
       </c>
@@ -6470,7 +6498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>551</v>
       </c>
@@ -6484,7 +6512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>584</v>
       </c>
@@ -6498,7 +6526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>587</v>
       </c>
@@ -6532,15 +6560,15 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6554,7 +6582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -6568,7 +6596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -6582,7 +6610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -6596,7 +6624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -6610,7 +6638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -6624,7 +6652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -6638,7 +6666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -6652,7 +6680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -6666,7 +6694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -6680,7 +6708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>138</v>
       </c>
@@ -6694,7 +6722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>197</v>
       </c>
@@ -6708,7 +6736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -6722,7 +6750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>242</v>
       </c>
@@ -6736,7 +6764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>245</v>
       </c>
@@ -6750,7 +6778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>248</v>
       </c>
@@ -6764,7 +6792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>254</v>
       </c>
@@ -6778,7 +6806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>263</v>
       </c>
@@ -6792,7 +6820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>266</v>
       </c>
@@ -6806,7 +6834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>269</v>
       </c>
@@ -6820,7 +6848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>278</v>
       </c>
@@ -6834,7 +6862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>281</v>
       </c>
@@ -6848,7 +6876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>284</v>
       </c>
@@ -6862,7 +6890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>290</v>
       </c>
@@ -6876,7 +6904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>317</v>
       </c>
@@ -6891,7 +6919,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>320</v>
       </c>
@@ -6906,7 +6934,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>349</v>
       </c>
@@ -6921,7 +6949,7 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>361</v>
       </c>
@@ -6936,7 +6964,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>370</v>
       </c>
@@ -6951,7 +6979,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>388</v>
       </c>
@@ -6966,7 +6994,7 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>397</v>
       </c>
@@ -6981,7 +7009,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>400</v>
       </c>
@@ -6996,7 +7024,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>418</v>
       </c>
@@ -7011,7 +7039,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>427</v>
       </c>
@@ -7026,7 +7054,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>453</v>
       </c>
@@ -7040,7 +7068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>468</v>
       </c>
@@ -7054,7 +7082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>485</v>
       </c>
@@ -7068,7 +7096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>494</v>
       </c>
@@ -7082,7 +7110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>500</v>
       </c>
@@ -7096,7 +7124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>515</v>
       </c>
@@ -7110,7 +7138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>518</v>
       </c>
@@ -7124,7 +7152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>524</v>
       </c>
@@ -7138,7 +7166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>527</v>
       </c>
@@ -7152,7 +7180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>542</v>
       </c>
@@ -7166,7 +7194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>545</v>
       </c>
@@ -7180,7 +7208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>557</v>
       </c>
@@ -7194,7 +7222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>569</v>
       </c>
@@ -7208,7 +7236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>578</v>
       </c>
@@ -7222,7 +7250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>581</v>
       </c>
@@ -7256,15 +7284,15 @@
       <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7278,7 +7306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -7292,7 +7320,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -7306,7 +7334,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -7320,7 +7348,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>329</v>
       </c>
@@ -7335,7 +7363,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>341</v>
       </c>
@@ -7350,7 +7378,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>367</v>
       </c>
@@ -7365,7 +7393,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>376</v>
       </c>
@@ -7380,7 +7408,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>403</v>
       </c>
@@ -7395,7 +7423,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>409</v>
       </c>
@@ -7410,7 +7438,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>445</v>
       </c>
@@ -7424,7 +7452,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>476</v>
       </c>
@@ -7438,7 +7466,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>533</v>
       </c>
@@ -7452,7 +7480,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>548</v>
       </c>
@@ -7466,7 +7494,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>572</v>
       </c>
@@ -7500,15 +7528,15 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7522,7 +7550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -7536,7 +7564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -7550,7 +7578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -7564,7 +7592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -7578,7 +7606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -7592,7 +7620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -7606,7 +7634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -7620,7 +7648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -7634,7 +7662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -7648,7 +7676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -7662,7 +7690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>173</v>
       </c>
@@ -7676,7 +7704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>185</v>
       </c>
@@ -7690,7 +7718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>188</v>
       </c>
@@ -7704,7 +7732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>200</v>
       </c>
@@ -7718,7 +7746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>206</v>
       </c>
@@ -7732,7 +7760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>227</v>
       </c>
@@ -7746,7 +7774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>233</v>
       </c>
@@ -7760,7 +7788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>236</v>
       </c>
@@ -7774,7 +7802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>251</v>
       </c>
@@ -7788,7 +7816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>257</v>
       </c>
@@ -7802,7 +7830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>287</v>
       </c>
@@ -7816,7 +7844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>302</v>
       </c>
@@ -7830,7 +7858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>305</v>
       </c>
@@ -7844,7 +7872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>308</v>
       </c>
@@ -7858,7 +7886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>326</v>
       </c>
@@ -7873,7 +7901,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>344</v>
       </c>
@@ -7888,7 +7916,7 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>347</v>
       </c>
@@ -7903,7 +7931,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>352</v>
       </c>
@@ -7918,7 +7946,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>373</v>
       </c>
@@ -7933,7 +7961,7 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>391</v>
       </c>
@@ -7948,7 +7976,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>394</v>
       </c>
@@ -7963,7 +7991,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>421</v>
       </c>
@@ -7978,7 +8006,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>424</v>
       </c>
@@ -7993,7 +8021,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>430</v>
       </c>
@@ -8008,7 +8036,7 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>433</v>
       </c>
@@ -8023,7 +8051,7 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>448</v>
       </c>
@@ -8037,7 +8065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>459</v>
       </c>
@@ -8051,7 +8079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>470</v>
       </c>
@@ -8065,7 +8093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>473</v>
       </c>
@@ -8079,7 +8107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>491</v>
       </c>
@@ -8093,7 +8121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>509</v>
       </c>
@@ -8107,7 +8135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>512</v>
       </c>
@@ -8121,7 +8149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>554</v>
       </c>
@@ -8135,7 +8163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>560</v>
       </c>
@@ -8169,15 +8197,15 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8191,7 +8219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -8205,7 +8233,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -8219,7 +8247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -8233,7 +8261,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -8247,7 +8275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -8261,7 +8289,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -8275,7 +8303,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>135</v>
       </c>
@@ -8289,7 +8317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -8303,7 +8331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -8317,7 +8345,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>164</v>
       </c>
@@ -8331,7 +8359,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -8345,7 +8373,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>212</v>
       </c>
@@ -8359,7 +8387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>224</v>
       </c>
@@ -8373,7 +8401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>230</v>
       </c>
@@ -8387,7 +8415,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>260</v>
       </c>
@@ -8401,7 +8429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>338</v>
       </c>
@@ -8416,7 +8444,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>379</v>
       </c>
@@ -8431,7 +8459,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>406</v>
       </c>
@@ -8446,7 +8474,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>439</v>
       </c>
@@ -8461,7 +8489,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>442</v>
       </c>
@@ -8475,7 +8503,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>497</v>
       </c>
@@ -8489,7 +8517,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>536</v>
       </c>
@@ -8503,7 +8531,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>563</v>
       </c>
@@ -8533,15 +8561,15 @@
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8555,7 +8583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -8569,7 +8597,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -8583,7 +8611,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -8597,7 +8625,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -8611,7 +8639,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -8625,7 +8653,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -8639,7 +8667,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>221</v>
       </c>
@@ -8653,7 +8681,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>412</v>
       </c>
@@ -8668,7 +8696,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>415</v>
       </c>
@@ -8683,7 +8711,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>506</v>
       </c>
@@ -8697,7 +8725,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>566</v>
       </c>
@@ -8711,7 +8739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>575</v>
       </c>
